--- a/CMCP_Manufacturing/OutputCMPC.xlsx
+++ b/CMCP_Manufacturing/OutputCMPC.xlsx
@@ -2545,6 +2545,7350 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B180" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B181" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B187" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B189" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B192" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B193" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B208" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C208" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B209" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B211" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B224" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B225" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B226" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B227" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B228" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B229" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B230" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B231" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B232" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B233" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B234" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B235" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B236" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B237" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B238" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B239" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B240" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B241" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B254" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B255" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B258" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B259" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B260" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B261" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B262" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B263" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B264" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B265" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B266" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B267" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B268" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B269" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B270" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B271" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B272" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B273" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B274" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B275" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B276" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B277" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B278" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B279" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B280" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B281" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B282" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B283" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B284" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B285" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B286" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B287" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B288" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B289" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B297" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B298" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B299" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B302" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C302" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D302" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B303" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C303" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="D303" t="n">
+        <v>312.0</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B304" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C304" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D304" t="n">
+        <v>312.0</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B305" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C305" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D305" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B306" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B307" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B308" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B309" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B310" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B311" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B312" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B313" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B314" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B315" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B316" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B317" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B318" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B319" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B320" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B321" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B322" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B323" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B324" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B325" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B326" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B327" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B328" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B329" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B330" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B331" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B332" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B333" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B334" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B335" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B336" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B337" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B342" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B343" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B350" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B351" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C351" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D351" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B352" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C352" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="D352" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B353" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C353" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D353" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B354" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B355" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B356" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B357" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B358" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B359" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B360" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B361" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B362" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B363" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B364" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B365" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B366" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B367" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B368" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B369" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B370" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B371" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B372" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B373" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B374" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B375" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B376" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B377" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B378" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B379" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B380" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B381" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B382" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B383" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B384" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B385" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B386" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B387" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B388" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B389" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B390" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B391" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B392" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B393" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B394" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B395" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B396" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B397" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B398" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C398" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="D398" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B399" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C399" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D399" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B400" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C400" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="D400" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B401" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C401" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D401" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B402" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B403" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B404" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B405" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B406" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B407" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B408" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B409" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B410" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B411" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E411" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B412" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B413" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E413" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B414" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E414" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B415" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B416" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B417" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B418" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B419" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B420" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B421" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B422" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E422" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B423" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B424" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B425" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B426" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B427" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B428" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B429" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E429" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B430" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E430" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B431" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E431" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B432" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E432" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B433" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B434" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B435" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B436" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E436" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B437" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B438" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B439" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B440" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B441" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B442" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B443" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E443" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B444" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E444" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B445" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B446" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C446" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="D446" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="E446" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B447" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C447" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D447" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B448" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C448" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="D448" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="E448" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B449" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C449" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D449" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E449" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B450" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E450" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B451" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E451" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B452" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E452" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B453" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E453" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B454" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E454" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B455" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E455" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B456" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E456" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B457" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E457" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B458" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E458" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B459" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E459" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B460" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E460" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B461" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B462" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E462" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B463" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E463" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B464" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E464" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B465" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E465" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B466" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E466" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B467" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E467" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B468" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E468" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B469" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E469" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B470" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E470" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B471" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B472" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E472" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B473" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E473" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B474" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B475" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E475" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B476" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B477" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B478" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E478" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B479" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B480" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B481" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E481" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B482" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B483" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E483" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B484" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B485" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B486" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E486" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B487" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B488" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B489" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E489" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B490" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B491" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B492" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B493" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B494" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C494" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="D494" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B495" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C495" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D495" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B496" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C496" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="D496" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B497" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C497" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D497" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B498" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E498" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B499" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B500" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B501" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B502" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B503" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B504" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B505" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E505" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B506" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E506" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B507" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B508" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B509" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E509" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B510" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B511" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B512" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E512" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B513" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E513" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B514" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E514" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B515" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E515" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B516" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E516" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B517" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E517" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B518" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E518" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B519" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E519" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B520" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E520" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B521" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E521" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B522" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E522" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B523" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E523" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B524" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E524" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B525" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C525" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E525" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B526" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E526" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B527" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E527" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B528" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E528" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B529" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E529" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B530" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E530" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B531" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E531" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B532" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E532" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B533" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E533" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B534" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E534" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B535" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E535" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B536" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E536" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B537" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E537" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B538" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E538" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B539" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E539" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B540" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E540" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B541" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E541" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B542" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C542" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="D542" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="E542" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B543" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C543" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D543" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B544" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C544" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="D544" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="E544" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B545" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C545" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D545" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E545" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B546" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E546" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B547" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C547" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E547" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B548" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C548" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E548" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B549" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E549" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B550" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E550" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B551" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C551" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E551" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B552" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D552" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E552" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B553" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E553" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B554" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E554" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B555" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C555" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E555" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B556" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E556" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B557" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E557" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B558" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C558" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E558" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B559" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E559" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B560" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E560" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B561" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C561" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E561" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B562" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C562" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E562" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B563" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E563" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B564" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C564" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E564" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B565" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C565" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E565" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B566" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C566" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E566" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B567" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E567" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B568" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C568" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E568" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B569" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C569" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E569" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B570" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C570" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E570" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B571" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C571" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D571" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E571" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B572" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C572" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E572" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B573" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C573" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D573" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E573" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B574" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C574" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E574" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B575" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C575" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E575" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B576" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C576" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D576" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E576" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B577" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C577" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D577" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E577" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CMCP_Manufacturing/OutputCMPC.xlsx
+++ b/CMCP_Manufacturing/OutputCMPC.xlsx
@@ -2692,10 +2692,10 @@
         <v>2.0</v>
       </c>
       <c r="D75" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E75" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="F75" t="n">
         <v>0.0</v>
@@ -2707,10 +2707,10 @@
         <v>0.0</v>
       </c>
       <c r="I75" t="n">
-        <v>1510.9713529128549</v>
+        <v>1662.0684882041405</v>
       </c>
       <c r="J75" t="n">
-        <v>3076.7999999999997</v>
+        <v>3589.5999999999995</v>
       </c>
       <c r="K75" t="n">
         <v>6630.0</v>
@@ -5247,10 +5247,10 @@
         <v>3.0</v>
       </c>
       <c r="D148" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E148" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="F148" t="n">
         <v>0.0</v>
@@ -5262,10 +5262,10 @@
         <v>0.0</v>
       </c>
       <c r="I148" t="n">
-        <v>1730.7692307692307</v>
+        <v>1875.0</v>
       </c>
       <c r="J148" t="n">
-        <v>9600.0</v>
+        <v>10800.0</v>
       </c>
       <c r="K148" t="n">
         <v>3333.0</v>
@@ -7697,10 +7697,10 @@
         <v>1.0</v>
       </c>
       <c r="D218" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="E218" t="n">
-        <v>22.0</v>
+        <v>30.0</v>
       </c>
       <c r="F218" t="n">
         <v>0.0</v>
@@ -7712,10 +7712,10 @@
         <v>0.0</v>
       </c>
       <c r="I218" t="n">
-        <v>847.8461538461539</v>
+        <v>1156.1538461538462</v>
       </c>
       <c r="J218" t="n">
-        <v>10192.0</v>
+        <v>13104.0</v>
       </c>
       <c r="K218" t="n">
         <v>9406.0</v>
@@ -12737,10 +12737,10 @@
         <v>1.0</v>
       </c>
       <c r="D362" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E362" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="F362" t="n">
         <v>0.0</v>
@@ -12752,10 +12752,10 @@
         <v>0.0</v>
       </c>
       <c r="I362" t="n">
-        <v>788.24</v>
+        <v>886.77</v>
       </c>
       <c r="J362" t="n">
-        <v>6000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="K362" t="n">
         <v>6486.0</v>
@@ -12772,10 +12772,10 @@
         <v>2.0</v>
       </c>
       <c r="D363" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="E363" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="F363" t="n">
         <v>0.0</v>
@@ -12787,10 +12787,10 @@
         <v>0.0</v>
       </c>
       <c r="I363" t="n">
-        <v>689.71</v>
+        <v>788.24</v>
       </c>
       <c r="J363" t="n">
-        <v>7000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="K363" t="n">
         <v>6486.0</v>
@@ -12877,10 +12877,10 @@
         <v>5.0</v>
       </c>
       <c r="D366" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="E366" t="n">
-        <v>34.0</v>
+        <v>38.0</v>
       </c>
       <c r="F366" t="n">
         <v>0.0</v>
@@ -12892,10 +12892,10 @@
         <v>0.0</v>
       </c>
       <c r="I366" t="n">
-        <v>1952.5349999999999</v>
+        <v>2182.245</v>
       </c>
       <c r="J366" t="n">
-        <v>13000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="K366" t="n">
         <v>6486.0</v>
@@ -12912,10 +12912,10 @@
         <v>6.0</v>
       </c>
       <c r="D367" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="E367" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="F367" t="n">
         <v>0.0</v>
@@ -12927,10 +12927,10 @@
         <v>0.0</v>
       </c>
       <c r="I367" t="n">
-        <v>2756.5199999999995</v>
+        <v>2871.3749999999995</v>
       </c>
       <c r="J367" t="n">
-        <v>18000.0</v>
+        <v>19000.0</v>
       </c>
       <c r="K367" t="n">
         <v>6486.0</v>
@@ -15292,10 +15292,10 @@
         <v>2.0</v>
       </c>
       <c r="D435" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E435" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="F435" t="n">
         <v>0.0</v>
@@ -15307,10 +15307,10 @@
         <v>0.0</v>
       </c>
       <c r="I435" t="n">
-        <v>674.946431822347</v>
+        <v>787.4375037927381</v>
       </c>
       <c r="J435" t="n">
-        <v>2637.6295384615387</v>
+        <v>3297.0369230769234</v>
       </c>
       <c r="K435" t="n">
         <v>3271.4175732133326</v>
@@ -15327,10 +15327,10 @@
         <v>3.0</v>
       </c>
       <c r="D436" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E436" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="F436" t="n">
         <v>0.0</v>
@@ -15342,10 +15342,10 @@
         <v>0.0</v>
       </c>
       <c r="I436" t="n">
-        <v>1083.0729147985214</v>
+        <v>1203.414349776135</v>
       </c>
       <c r="J436" t="n">
-        <v>5690.4030085470085</v>
+        <v>6828.4836102564095</v>
       </c>
       <c r="K436" t="n">
         <v>3271.4175732133326</v>
@@ -17777,10 +17777,10 @@
         <v>1.0</v>
       </c>
       <c r="D506" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E506" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="F506" t="n">
         <v>0.0</v>
@@ -17792,10 +17792,10 @@
         <v>0.0</v>
       </c>
       <c r="I506" t="n">
-        <v>1040.897435897436</v>
+        <v>1144.9871794871794</v>
       </c>
       <c r="J506" t="n">
-        <v>7560.0</v>
+        <v>8820.0</v>
       </c>
       <c r="K506" t="n">
         <v>7000.0</v>
